--- a/readme.xlsx
+++ b/readme.xlsx
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -765,9 +765,12 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:17">
       <c r="H6" s="2" t="s">
@@ -787,9 +790,11 @@
         <v>28</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" t="s">

--- a/readme.xlsx
+++ b/readme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>[KOD] [nchar](10) NULL,</t>
   </si>
@@ -196,13 +196,208 @@
   </si>
   <si>
     <t>ΣΥΓΧΟΝΕΥΣΗ</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[THERTIMES](</t>
+  </si>
+  <si>
+    <t>[ONOMA] [nvarchar](50) NULL,</t>
+  </si>
+  <si>
+    <t>[KOD] [nvarchar](10) NULL,</t>
+  </si>
+  <si>
+    <t>) ON [PRIMARY]</t>
+  </si>
+  <si>
+    <t>[TIMH] [real] NULL,   [ID] [int] IDENTITY(1,1) NOT NULL</t>
+  </si>
+  <si>
+    <t>insert into THERTIMES(ONOMA,KOD,TIMH) VALUES ('ΕΡΓΟΘΕΡΑΠΕΙΑ','ERGH',15)</t>
+  </si>
+  <si>
+    <t>insert into THERTIMES(ONOMA,KOD,TIMH) VALUES ('ΘΕΡ.ΣΥΜΠΕΡΙΦΟΡΑΣ','PSIH',15)</t>
+  </si>
+  <si>
+    <t>insert into THERTIMES(ONOMA,KOD,TIMH) VALUES ('ΕΙΔ.ΔΙΑΠΑΙΔΑΓΩΓΗΣΗ','EIDH',1.23)</t>
+  </si>
+  <si>
+    <t>insert into THERTIMES(ONOMA,KOD,TIMH) VALUES ('ΟΙΚΟΓ.ΨΥΧΟΘΕΡΑΠΕΙΑ','OIKH',15)</t>
+  </si>
+  <si>
+    <t>insert into THERTIMES(ONOMA,KOD,TIMH) VALUES ('ΛΟΓΟΘΕΡΑΠΕΙΑ','LOGH',15)</t>
+  </si>
+  <si>
+    <t>ΠΩΣ ΔΗΜΙΟΥΡΓΩ ΤΑ INSERTS</t>
+  </si>
+  <si>
+    <t>Here is another method, which may be easier than installing plugins or external tools in some situations:</t>
+  </si>
+  <si>
+    <r>
+      <t>Do a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>select [whatever you need]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>INTO temp.table_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>from [... etc ...]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Right-click on the database in the Object Explorer =&gt; Tasks =&gt; Generate Scripts</t>
+  </si>
+  <si>
+    <r>
+      <t>Select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>temp.table_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> in the "Choose Objects" screen, click Next.</t>
+    </r>
+  </si>
+  <si>
+    <t>In the "Specify how scripts should be saved" screen:</t>
+  </si>
+  <si>
+    <t>Click Advanced, find the "Types of data to Script" property, select "Data only", close the advanced properties.</t>
+  </si>
+  <si>
+    <t>Select "Save to new query window" (unless you have thousands of records).</t>
+  </si>
+  <si>
+    <r>
+      <t>Click Next, wait for the job to complete, observe the resulting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>INSERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> statements appear in a new query window.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use Find &amp; Replace to change all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>[temp.table_name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>[your_table_name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>drop table [temp.table_name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +413,33 @@
       <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="5">
@@ -258,12 +480,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -751,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -896,7 +1131,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:18">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -904,7 +1139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:18">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -913,7 +1148,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:18">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -921,59 +1156,77 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:18">
       <c r="B20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:18">
       <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:18">
       <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:18">
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:18">
       <c r="B24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
       <c r="B25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:18">
       <c r="B26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="O26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="2:18">
       <c r="B27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="P27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="P28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
       <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="P29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -983,8 +1236,11 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -993,8 +1249,11 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -1003,86 +1262,257 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:15">
       <c r="B33" t="s">
         <v>25</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="H34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="H35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="H36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="H37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="H38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:15">
       <c r="H39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:15">
       <c r="H40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:15">
       <c r="H41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:15">
       <c r="H42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:15">
       <c r="H43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:15">
       <c r="H44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:15">
       <c r="H45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:15">
       <c r="H46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:15">
       <c r="G47" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="7"/>
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
